--- a/Result/VAR/Manufacturing/SGP.xlsx
+++ b/Result/VAR/Manufacturing/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.697179303927371</v>
+        <v>25.82611667163626</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>2.636618986857808</v>
+        <v>25.25376356233554</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7666100286652338</v>
+        <v>22.48494089644078</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.225060284801462</v>
+        <v>21.85379025236798</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>3.785475774536838</v>
+        <v>21.80596197798535</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.022214793285396</v>
+        <v>20.8644302343111</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5121251418666368</v>
+        <v>22.94402317990297</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.76556308193155</v>
+        <v>24.19376341154965</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1197985714128365</v>
+        <v>25.82119229750707</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>1.952647739573557</v>
+        <v>25.22063234367931</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.16584401142374</v>
+        <v>24.44887734634226</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>1.232365459429779</v>
+        <v>25.22339358965022</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9693066756616986</v>
+        <v>24.26063059342838</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>1.207474854902653</v>
+        <v>24.28016505866036</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.178184773886166</v>
+        <v>23.50746376191397</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1978702018035676</v>
+        <v>23.69613377071189</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>1.551663398261731</v>
+        <v>22.8686002367677</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3727153287569287</v>
+        <v>21.94679527486855</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>2.847566060158996</v>
+        <v>22.28494486823695</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.477587915042768</v>
+        <v>22.46974671362737</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>3.809730665899711</v>
+        <v>24.86185613458518</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.31517010533441</v>
+        <v>22.77180358860602</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>2.32618253364344</v>
+        <v>23.82210090175429</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.396560702724631</v>
+        <v>24.02617461274749</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.4561500135470595</v>
+        <v>25.90244077413681</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.256598268871269</v>
+        <v>25.83544799578697</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4816328494032085</v>
+        <v>25.42125910506903</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>2.924698385903838</v>
+        <v>23.16329310033411</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8127451410139663</v>
+        <v>20.5155387532922</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.691738113573766</v>
+        <v>20.26813031319024</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7255519894231028</v>
+        <v>20.71767949987342</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.012682837279115</v>
+        <v>19.63535923959325</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>1.839771642443814</v>
+        <v>19.09955361745289</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2717983145081853</v>
+        <v>17.82220166145943</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.6706325372022768</v>
+        <v>18.04442091357657</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18.030322586481</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2151241733221567</v>
+        <v>17.40189610656805</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2026294347698377</v>
+        <v>17.27359431982252</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02153539130729863</v>
+        <v>17.1307094014572</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1126373349306694</v>
+        <v>16.9789670085995</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03351537559503664</v>
+        <v>16.82281262832847</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>26.52611559513869</v>
+        <v>26.14587489262068</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7581049024776</v>
+        <v>25.47442206535145</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>22.29291490588914</v>
+        <v>22.72005952844342</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>21.46434389615849</v>
+        <v>22.04725035767255</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40238291509307</v>
+        <v>21.97280251737266</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>20.11536164922619</v>
+        <v>20.93961799444227</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>22.61381615789615</v>
+        <v>22.85755008220352</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>24.09005587328071</v>
+        <v>23.96213586173698</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>26.07842073053191</v>
+        <v>25.46107553588415</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>25.30122250585156</v>
+        <v>24.80664042104852</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>24.40422570975837</v>
+        <v>24.06879049094408</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>25.45987665323874</v>
+        <v>24.86985156281298</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>24.34968358529537</v>
+        <v>23.98338426196701</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47185597678178</v>
+        <v>24.06348014658787</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>23.62472169260649</v>
+        <v>23.38362021074435</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>23.98506226333385</v>
+        <v>23.64492206168755</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>23.16721806017505</v>
+        <v>22.99403667712899</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>22.15150365521268</v>
+        <v>22.17793027118497</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>22.68745264851204</v>
+        <v>22.55993174187589</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>22.85068631305447</v>
+        <v>22.65275979774851</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>25.8614860377559</v>
+        <v>24.96640634086572</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>23.39469784741456</v>
+        <v>23.03134617851963</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>24.73764032297293</v>
+        <v>24.08094106731323</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>24.76541269319689</v>
+        <v>24.10704311834144</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>27.11936759706429</v>
+        <v>25.92157098986607</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>27.07676179820706</v>
+        <v>25.85127539552811</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>26.57800598580277</v>
+        <v>25.41769938452232</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>23.82265190452721</v>
+        <v>23.204544845332</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>20.58566497384844</v>
+        <v>20.60107395135239</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>20.27337642907351</v>
+        <v>20.28616501788294</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>20.77383302531255</v>
+        <v>20.62305020921841</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>19.58255150797782</v>
+        <v>19.69584136008205</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>19.11682198006619</v>
+        <v>19.33457647633766</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>17.63840961487545</v>
+        <v>18.1786913549566</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>17.99976889212852</v>
+        <v>18.45635623651703</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>18.08932985487341</v>
+        <v>18.52420568509931</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>17.50825828041602</v>
+        <v>18.09331344643934</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>18.58334720710878</v>
+        <v>18.99110414401529</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>20.73630601356827</v>
+        <v>20.74471378941232</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>19.43284515107672</v>
+        <v>19.79821939410766</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>19.95498366095388</v>
+        <v>20.28030986344507</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>21.07415385601889</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3832528293726722</v>
+        <v>21.23613201160742</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4262032841210848</v>
+        <v>21.45074521373596</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1734920457303761</v>
+        <v>21.71922167024493</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.224621292372075</v>
+        <v>22.04321072512655</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.05033319822996542</v>
+        <v>22.42469571803534</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
